--- a/biology/Histoire de la zoologie et de la botanique/András_Zicsi/András_Zicsi.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/András_Zicsi/András_Zicsi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andr%C3%A1s_Zicsi</t>
+          <t>András_Zicsi</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">András Zicsi, (7 février 1928 à Bucarest - 22 juillet 2015 à Budapest) est un biologiste hongrois, qui représente, avec Gordon E. Gates, Gilberto Righi et Barrie G.M. Jamieson, un des grands spécialistes de l'évolution du XXe siècle et de la systématique des Vers de terre. Csaba Csuzdi fut son élève, avant de devenir son collègue.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andr%C3%A1s_Zicsi</t>
+          <t>András_Zicsi</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -519,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Andr%C3%A1s_Zicsi</t>
+          <t>András_Zicsi</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -539,8 +553,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">1955-1959
-1. Zicsi, A. (1955) : A giliszták szerepe a talajokban, gödöllői talajvizsgálatok, kísérletek és tanszéki adatgyűjtés feldolgozása alapján. - Agrártud. Egy. Agr. Kar Kiadv., I., 14: 1-20.
+          <t>1955-1959</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1. Zicsi, A. (1955) : A giliszták szerepe a talajokban, gödöllői talajvizsgálatok, kísérletek és tanszéki adatgyűjtés feldolgozása alapján. - Agrártud. Egy. Agr. Kar Kiadv., I., 14: 1-20.
 2. Zicsi, A. (1957) : Ein Bodenausstecher zum Einsammeln der Lumbriciden aus Ackerböden. - Opusc. Zool. Budapest, 2: 71-75.
 3. Zicsi, A. (1958) : Beiträge zur Kenntnis der ungarischen Lumbricidenfauna, I. - Opusc. Zool. Budapest, 2: 55-60.
 4. Zicsi, A. (1958) : Freilandsuntersuchungen zur Kenntnis der Empfindlichkeit einiger Lumbriciden-Arten gegen Trockenperioden. - Acta Zool. Hung., 3: 369-383.
@@ -551,8 +570,43 @@
 9. Zicsi, A. (l959) : Faunistisch-systematische und ökologische Studien über die Regenwürmer Ungarns. II. - Acta Zool. Hung., 5: 401-447.
 10. Zicsi, A. (l959) : Beiträge zur Kenntnis der ungarischen Lumbriciden-Fauna, II. - Opusc. Zool. Budapest, 3: 95-100.
 11. Pacs, I. - Zicsi, A. - Lipcsei, J. (1984) : Utilization of rabbit manure with earthworms (Eisenia fetida) - Rep. Res. Center Anim. Prod. Nutr. Gödöllő, p. 341.
-1960-1964
-12. Zicsi, A. (1960) : Die Regenwurmfauna des oberen ungarischen Donau-Ufergebietes. - Ann. Univ. Sci. Budapest Sect. Biol., 3: 427-440.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>András_Zicsi</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andr%C3%A1s_Zicsi</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste complète des travaux de András Zicsi</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1960-1964</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">12. Zicsi, A. (1960) : Die Regenwurmfauna des oberen ungarischen Donau-Ufergebietes. - Ann. Univ. Sci. Budapest Sect. Biol., 3: 427-440.
 13. Zicsi, A. (1961) : Die Regenwurmfauna Ufergebietes und Inseln der ungarischen Donau - Danubialia Hungarica, XII. - Ann. Univ. Sci. Budapest, Sect. Biol., 4: 217-231.
 14. Zicsi, A. (1961) : Revision der Lumbriciden von Prof Dr. Vejdovsky. - Cas. Národ. Muz. odd. Prir., 30: 77-80.
 15. Zicsi, A. (1961) : Eine interessante Anomalie aus der Familie Lumbricidae (Oligochaeta). - Zool. Anz., 167: 464-468.
@@ -565,8 +619,43 @@
 22. Zicsi, A. (1963) : Die Regenwurmfauna des unteren ungarischen Donau-Ufergebietes. - Ann. Univ. Sci. Budapest, Sect. Biol., 6: 227-242.
 23. Zicsi, A. (1964) : Neue Fundorte des Lumbriciden Dendrobaena auriculata (Rosa 1897) in Ungarn. - Ann. Univ. Sci. Budapest, Sect. Biol., 7: 255-258.
 24. Zicsi, A. (1964) : Neubeschreibung des Lumbriciden Allolobophora hrabei (Cernosvitov, 1935). - Opusc. Zool. Budapest, 5: 119-123.
-1965-1969
-25. Zicsi, A. (1965) : Die Lumbriciden Oberösterreichs und österreichs unter Zugrundlegung der Sammlung Karl Wesselys mit besonderer Berücksichtigung des Linzer Raumes. - Naturk. Jahrb. der Stadt Linz, 11: 125-201.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>András_Zicsi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andr%C3%A1s_Zicsi</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste complète des travaux de András Zicsi</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1965-1969</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">25. Zicsi, A. (1965) : Die Lumbriciden Oberösterreichs und österreichs unter Zugrundlegung der Sammlung Karl Wesselys mit besonderer Berücksichtigung des Linzer Raumes. - Naturk. Jahrb. der Stadt Linz, 11: 125-201.
 26. Zicsi, A. (1965) : Beiträge zur Kenntnis der Lumbricidenfauna Österreichs. - Opusc. Zool. Budapest, 5: 247-265.
 27. Zicsi, A. (l965) : Eine neue Regenwurm-Art aus Portugal (Oligochaeta: Lumbricidae). - Acta Zool. Hung., 11: 117-225.
 28. Zicsi, A. (1965) : Beszámoló a kongói talajzoológiai expedíció gyűjtéseiről. - Állatt. Közl., 52: 147-157.
@@ -589,8 +678,43 @@
 45. Zicsi, A. (1969) : Neue Regenwurm-Arten (Lumbricidae) aus den österreichischen Karawanken. - Opusc. Zool. Budapest, 9: 379-384.
 46. Zicsi, A. (1969) : Beitrag zur Revision der Regenwurm- Sammlung Karl Wesselys im OÖ. Landesmuseum zu Linz. Naturk. Jahrb. der Stadt Linz, 15: 69-76.
 47. Balogh, J. - Mahunka, S. - Zicsi, A. (1969) : The Scientific Results of the Hungarian Soil Zoological Expeditions to South America. 14. A Report on the Collectings of the Second Expedition. - Rovart. Közl. (Fol. Entom. Hung.), 22: 453-474.
-1970-1974
-48. Zicsi, A. (1970) : Revision der Bretscherischen Regenwurm-Sammlung aus Zürich. - Rev. Suisse Zool., 77: 237-246.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>András_Zicsi</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andr%C3%A1s_Zicsi</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste complète des travaux de András Zicsi</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1970-1974</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">48. Zicsi, A. (1970) : Revision der Bretscherischen Regenwurm-Sammlung aus Zürich. - Rev. Suisse Zool., 77: 237-246.
 49. Zicsi, A. (1970) : Bemerkungen zum Problem von Octolasium (Octodrilus) croaticum (Rosa, 1895), nebst Beschreibung von zwei neuen Arten der Untergattung Octodrilus (Oligochaeta: Lumbricidae). - Opusc. Zool. Budapest, 10: 165-174.
 50. Zicsi, A. (1970) : Allolobophora gestroides sp. nov., ein neuer Regenwurm (Oligochaeta: Lumbricidae) aus Ungarn. - Opusc. Zool. Budapest, 10: 359-370.
 51. Zicsi, A. (1970) : Neue Regenwürmer (Oligochaeta: Hormogastridae, Lumbricidae) aus Spanien. - Opusc. Zool. Budapest, 10: 371-378.
@@ -606,8 +730,43 @@
 61. Zicsi, A. (1973) : Regenwürmer (Oligochaeta: Lumbricidae) aus der Türkei. - Acta Zool. Hung., 19: 217-232.
 62. Zicsi, A. (1974) : Ein neuer Höhlen-Regenwurm (Oligochaeta: Lumbricidae) aus Ungarn. - Acta Zool. Hung., 20: 227-232.
 63. Zicsi, A. (1974) : Ein neue Dendrobaena-Art (Oligochaeta: Lumbricidae) aus Griechenland. - Acta Zool. Hung., 20: 449-451.
-1975-1979
-64. Zicsi, A. (1975) : Zootische Einflüsse auf die Streuzersetzung in Hainbuchen-Eichenwäldern Ungarns. - Pedobiologia, 15: 432-438.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>András_Zicsi</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andr%C3%A1s_Zicsi</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste complète des travaux de András Zicsi</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1975-1979</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">64. Zicsi, A. (1975) : Zootische Einflüsse auf die Streuzersetzung in Hainbuchen-Eichenwäldern Ungarns. - Pedobiologia, 15: 432-438.
 65. Zicsi, A. (1976) : Weitere Angaben zur Regenwurm-Fauna (Oligochaeta: Lumbricidae) des Tessins (Schweiz). - Rev. suisse Zool., 83: 515-520.
 66. Zicsi, A. (1977) : Wiederbeschreibung zweier Arten aus der Familie Lumbricidae (Oligochaeta). - Opusc. Zool. Budapest, 13: 107-110.
 67. Zicsi, A. (1977) : Die Bedeutung der Regenwürmer bei der Streuzersetzung in mesophilen Laubwäldern Ungarns. - P. Cent. pir. Biol. exp., (Jaca) 9: 75-84.
@@ -617,8 +776,43 @@
 71. Zicsi, A. (1971) : Néhány földigiliszta faj szerepe az avarlebontásban. - MTA Biol. Oszt. Közlem., 20: 237-243.
 72. Zicsi, A. (1978) : Revision der Art Dendrobaena platyura (Fitzinger, l833) (Oligochaeta: Lumbricidae). - Acta Zool. Hung., 24: 439-449.
 73. Pobozsny, M. - Zicsi, A. (1978) : Die Bedeutung der Krautschicht bei Fütterungsversuchen von grosskörperigen Lumbriciden-Arten. - Opusc. Zool. Budapest, 15: 119-127.
-1980-1984
-74. Zicsi, A. (1981) : Regenwürmer des Grossglocknergebietes. - Bodenbiologische Untersuchungen in den Hohen Tauern (1974-1978), MAB Hochgebirgsprogramm Hohe Tauern, 4: 91-94.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>András_Zicsi</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andr%C3%A1s_Zicsi</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste complète des travaux de András Zicsi</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1980-1984</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">74. Zicsi, A. (1981) : Regenwürmer des Grossglocknergebietes. - Bodenbiologische Untersuchungen in den Hohen Tauern (1974-1978), MAB Hochgebirgsprogramm Hohe Tauern, 4: 91-94.
 75. Zicsi, A. - Pobozsny, M. - Szlávecz, K. (1978) : Die Bedeutung der Mikrohabitate bei Streuzersetzungs-prozessen in einem Hainbuchen-Eichenwald Ungarns. - Opusc. Zool. Budapest, 15: 153-163.
 76. Zicsi, A. (1978) : Nahrungsansprüche einheimischer Lumbriciden-Arten und ihre Bedeutung für die Ökosystem-forschung in Ungarn. - Pedobiologia, 18: 341-349.
 77. Zicsi, A. (1979) : Neue Angaben zur Regenwurm-Fauna der Schweiz (Oligochaeta: Lumbricidae). - Rev. suisse Zool., 86: 473-484.
@@ -636,8 +830,43 @@
 89. Zicsi, A. (1983) : Earthworms ecology in deciduous forests in central and southeast Europe. - in: Satchell, J. E.: Earthworm ecology from Darwin to vermiculture. Chapter 14: 171-177.
 90. Zicsi, A. (1983) : État actuel des recherches du laboratoire souterrain biospéléologique a Aggtelek, Hongrie. - Mém. Biospéol., 10: 449-451.
 91. Zicsi, A. - Pop, V. V. (1984) : Neue Regenwürmer aus Rumänien (Oligochaeta: Lumbricidae). - Acta Zool. Hung., 30: 241-248.
-1985-1989
-92. Zicsi, A. (1985) : Über die Gattungen Helodrilus Hoffmeister, 1845 und Proctodrilus gen. n. (Oligochaeta: Lumbricidae). - Acta Zool. Hung., 31: 275-289.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>András_Zicsi</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andr%C3%A1s_Zicsi</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liste complète des travaux de András Zicsi</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1985-1989</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">92. Zicsi, A. (1985) : Über die Gattungen Helodrilus Hoffmeister, 1845 und Proctodrilus gen. n. (Oligochaeta: Lumbricidae). - Acta Zool. Hung., 31: 275-289.
 93. Zicsi, A. (1985) : Welche Lumbriciden-Arten eignen sich noch in Europa zum Anlegen von Wurmkulturen zwecks Kompostierungsversuche. - Opusc. Zool. Budapest, 21: 137-139.
 94. Zicsi, A. (1985) : Regenwürmer (Oligochaeta: Lumbricidae) aus Israel und den benachbarten Ländern. - Rev. suisse Zool., 92: 323-331.
 95. Zicsi, A. - Csuzdi, Cs. (1986) : Neue Eminoscolex-Arten aus dem Kongo-Gebiet Oligochaeta: Eudrilidae. - Acta Zool. Hung., 32: 181-205.
@@ -665,8 +894,43 @@
 117. Csuzdi, Cs. - Zicsi, A. (1989) : Neue Dichogaster-Arten aus der Kongo-Region (Oligochaeta: Octochaetidae). - Mitt. hamb. zool. Mus. Inst., 86: 133-152.
 118. Zicsi, A. (1989) : Revision der Gattung Yagansia Michaelsen, 1899 (Oligochaeta: Acanthodrilidae). Regenwürmer aus Südamerika 11. - Acta Zool. Hung., 35: 413-430.
 119. Zicsi, A. - Csuzdi, Cs,. (1989) : Eine neue Wegeneriella-Art aus dem Kongo-Gebiet (Oligochaeta: Octochaetidae) - Miscellanea Zool. Hung., 5: 29-31.
-1990-1994
-120. Zicsi, A. (1990) : Zwei neue Regenwurm-Gattungen aus Ekuador (Oligochaeta: Glossoscolecidae). Regenwürmer aus Südamerika 13. - Revue suisse Zool., 97: 99-106.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>András_Zicsi</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andr%C3%A1s_Zicsi</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Liste complète des travaux de András Zicsi</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1990-1994</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">120. Zicsi, A. (1990) : Zwei neue Regenwurm-Gattungen aus Ekuador (Oligochaeta: Glossoscolecidae). Regenwürmer aus Südamerika 13. - Revue suisse Zool., 97: 99-106.
 121. Bodnár, G. - Szabó, I. M. - Zicsi, A. (1990) : Untersuchungen über die intestinalen Actinomyceten-Gemeinschaften von Mesoniscus graniger Friv. Isopoda - Memoires de Biospéologie, 17: 141-146.
 122. Pacs, I. - Puskás, F. - Zicsi, A. (1990) : Giliszta, gilisztahumusz. Házunk táján. - Mezg. Kiadó Kft., Budapest, pp. 94.
 123. Zicsi, A. (1990) : Weitere neue und bekannte Onoreodrilus-Arten aus Ekuador (Oligochaeta: Glossoscolecidae). Regenwürmer aus Südamerika 14. - Mitt. hamb. zool. Mus. Inst., 87: 149-155.
@@ -694,8 +958,43 @@
 145. Csuzdi, Cs. - Zicsi, A. (1994) : Neue Dichogaster-Arten aus dem Upemba National Park, Zaire (Oligochaeta: Octochaetidae). - Mitt. hamb. zool. Mus. Inst., 89(2): 47-53.
 146. Zicsi, A. - Feijoo Martinez, A. (1994) : Regenwürmer aus der Zentralkordillere Kolumbiens (Oligochaeta: Glossoscolecidae) Regenwürmer aus Südamerika 21. - Mitt. hamb. zool. Mus. Inst., 89(2): 55-62.
 147. Zicsi, A. - Hevesi, A. - Decu, V. (1994) : Hongrie. In: Juberthie, C. et Decu, V. (Eds.): Encyclopaedia Biospeologica, (Moulis, Bucarest) 1: 719-724.
-1995-1999
-148. Zicsi, A. (1995) : Regenwürmer aus Bolivien (Oligochaeta). - Regegenwürmer aus Südamerika 23. Revue suisse de Zoologie, 102(3): 585-608.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>András_Zicsi</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andr%C3%A1s_Zicsi</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Liste complète des travaux de András Zicsi</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1995-1999</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">148. Zicsi, A. (1995) : Regenwürmer aus Bolivien (Oligochaeta). - Regegenwürmer aus Südamerika 23. Revue suisse de Zoologie, 102(3): 585-608.
 149. Zicsi, A. (1995) : Revision der Gattung Glossodrilus Cognetti, 1905 auf Grund der Arten aus dem Andengebiet (Oligochaeta: Glossoscolecidae) Regenwürmer aus Südamerika, 25. - Opusc. Zool. Budapest, 27-28: 79-116.
 150. Zicsi, A. (1995) : Über die systematische Stellung von Allolobophora opisthocystis Rosa, 1895 (Oligochaeta: Lumbricidae). - Ann. Naturhist. Mus. Wien, 97 B: 125-129.
 151. Zicsi, A. (1995) : Ein weiterer Beitrag zur Regenwurm-Fauna der Karibischen Region (Oligochaeta). Regegenwürmer aus Südamerika 24. - Mitt. hamb. zool. Mus. Inst., 92: 53-64.
